--- a/Resultados/RESULTADOS_7.xlsx
+++ b/Resultados/RESULTADOS_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.69</v>
+        <v>1.45</v>
       </c>
       <c r="E2" t="n">
-        <v>59.23</v>
+        <v>68.98</v>
       </c>
       <c r="F2" t="n">
         <v>51.7</v>
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="E3" t="n">
-        <v>39.98</v>
+        <v>43.25</v>
       </c>
       <c r="F3" t="n">
         <v>35.87</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="E4" t="n">
-        <v>36.25</v>
+        <v>38.19</v>
       </c>
       <c r="F4" t="n">
         <v>32.84</v>
@@ -819,10 +819,10 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.89</v>
+        <v>2.78</v>
       </c>
       <c r="E5" t="n">
-        <v>34.6</v>
+        <v>35.97</v>
       </c>
       <c r="F5" t="n">
         <v>31.49</v>
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.95</v>
+        <v>2.86</v>
       </c>
       <c r="E6" t="n">
-        <v>33.86</v>
+        <v>34.91</v>
       </c>
       <c r="F6" t="n">
         <v>30.91</v>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3.01</v>
+        <v>2.93</v>
       </c>
       <c r="E7" t="n">
-        <v>33.27</v>
+        <v>34.11</v>
       </c>
       <c r="F7" t="n">
         <v>30.44</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="E8" t="n">
-        <v>32.82</v>
+        <v>33.52</v>
       </c>
       <c r="F8" t="n">
         <v>30.06</v>
@@ -1147,10 +1147,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.08</v>
+        <v>3.02</v>
       </c>
       <c r="E9" t="n">
-        <v>32.51</v>
+        <v>33.1</v>
       </c>
       <c r="F9" t="n">
         <v>29.81</v>
@@ -1229,10 +1229,10 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="E10" t="n">
-        <v>32.37</v>
+        <v>32.87</v>
       </c>
       <c r="F10" t="n">
         <v>29.71</v>
@@ -1311,10 +1311,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.11</v>
+        <v>3.07</v>
       </c>
       <c r="E11" t="n">
-        <v>32.15</v>
+        <v>32.6</v>
       </c>
       <c r="F11" t="n">
         <v>29.53</v>
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="E12" t="n">
-        <v>32.03</v>
+        <v>32.44</v>
       </c>
       <c r="F12" t="n">
         <v>29.43</v>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3.15</v>
+        <v>3.12</v>
       </c>
       <c r="E13" t="n">
-        <v>31.78</v>
+        <v>32.06</v>
       </c>
       <c r="F13" t="n">
         <v>29.15</v>
@@ -1557,10 +1557,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="E14" t="n">
-        <v>31.97</v>
+        <v>32.12</v>
       </c>
       <c r="F14" t="n">
         <v>29.25</v>
@@ -1623,6 +1623,170 @@
         <v>1</v>
       </c>
       <c r="Z14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>80</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E15" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>29.23</v>
+      </c>
+      <c r="G15" t="n">
+        <v>103.17</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>17</v>
+      </c>
+      <c r="J15" t="n">
+        <v>177.97</v>
+      </c>
+      <c r="K15" t="n">
+        <v>50.28</v>
+      </c>
+      <c r="L15" t="n">
+        <v>14</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>33.69</v>
+      </c>
+      <c r="O15" t="n">
+        <v>22184.13</v>
+      </c>
+      <c r="P15" t="n">
+        <v>277.82</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R15" t="n">
+        <v>126.17</v>
+      </c>
+      <c r="S15" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T15" t="n">
+        <v>12711.23</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="X15" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>80</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CONCLUIDO	</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E16" t="n">
+        <v>32.01</v>
+      </c>
+      <c r="F16" t="n">
+        <v>29.17</v>
+      </c>
+      <c r="G16" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="I16" t="n">
+        <v>16</v>
+      </c>
+      <c r="J16" t="n">
+        <v>179.46</v>
+      </c>
+      <c r="K16" t="n">
+        <v>50.28</v>
+      </c>
+      <c r="L16" t="n">
+        <v>15</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>34.18</v>
+      </c>
+      <c r="O16" t="n">
+        <v>22367.38</v>
+      </c>
+      <c r="P16" t="n">
+        <v>277.87</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1194.85</v>
+      </c>
+      <c r="R16" t="n">
+        <v>124.13</v>
+      </c>
+      <c r="S16" t="n">
+        <v>100.53</v>
+      </c>
+      <c r="T16" t="n">
+        <v>11697.72</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="X16" t="n">
+        <v>51.07</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="n">
         <v>10</v>
       </c>
     </row>
